--- a/data/support_tourist_folder/FRANCIA.xlsx
+++ b/data/support_tourist_folder/FRANCIA.xlsx
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>43806</v>
+        <v>43807</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>43745</v>
+        <v>43746</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>43715</v>
+        <v>43716</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1224,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>43684</v>
+        <v>43685</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>43653</v>
+        <v>43654</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1264,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>43623</v>
+        <v>43624</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1304,7 +1304,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>43562</v>
+        <v>43563</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>43531</v>
+        <v>43532</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>43503</v>
+        <v>43504</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1364,7 +1364,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>43472</v>
+        <v>43473</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1384,7 +1384,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1404,7 +1404,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>43411</v>
+        <v>43412</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1424,7 +1424,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -1444,7 +1444,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1464,7 +1464,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1484,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1504,7 +1504,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1524,7 +1524,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>43227</v>
+        <v>43228</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1544,7 +1544,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2">
-        <v>43197</v>
+        <v>43198</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1564,7 +1564,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2">
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1584,7 +1584,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>43138</v>
+        <v>43139</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -1604,7 +1604,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>43107</v>
+        <v>43108</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -1624,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="2">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
@@ -1644,7 +1644,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2">
-        <v>43046</v>
+        <v>43047</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -1664,7 +1664,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2">
-        <v>43015</v>
+        <v>43016</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
@@ -1684,7 +1684,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2">
-        <v>42985</v>
+        <v>42986</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
@@ -1704,7 +1704,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="2">
-        <v>42954</v>
+        <v>42955</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -1724,7 +1724,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="2">
-        <v>42923</v>
+        <v>42924</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -1744,7 +1744,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="2">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -1764,7 +1764,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="2">
-        <v>42862</v>
+        <v>42863</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -1784,7 +1784,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="2">
-        <v>42832</v>
+        <v>42833</v>
       </c>
       <c r="D34" t="s">
         <v>37</v>
@@ -1804,7 +1804,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="2">
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -1824,7 +1824,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="2">
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
@@ -1844,7 +1844,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="2">
-        <v>42742</v>
+        <v>42743</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
@@ -1864,7 +1864,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="2">
-        <v>42711</v>
+        <v>42712</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
@@ -1884,7 +1884,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="2">
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
@@ -1904,7 +1904,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="2">
-        <v>42650</v>
+        <v>42651</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
@@ -1924,7 +1924,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="2">
-        <v>42620</v>
+        <v>42621</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
@@ -1944,7 +1944,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="2">
-        <v>42589</v>
+        <v>42590</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -1964,7 +1964,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="2">
-        <v>42558</v>
+        <v>42559</v>
       </c>
       <c r="D43" t="s">
         <v>46</v>
@@ -1984,7 +1984,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="2">
-        <v>42528</v>
+        <v>42529</v>
       </c>
       <c r="D44" t="s">
         <v>47</v>
@@ -2004,7 +2004,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="2">
-        <v>42497</v>
+        <v>42498</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -2024,7 +2024,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="2">
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="D46" t="s">
         <v>49</v>
@@ -2044,7 +2044,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="2">
-        <v>42436</v>
+        <v>42437</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -2064,7 +2064,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="2">
-        <v>42407</v>
+        <v>42408</v>
       </c>
       <c r="D48" t="s">
         <v>51</v>
@@ -2084,7 +2084,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="2">
-        <v>42376</v>
+        <v>42377</v>
       </c>
       <c r="D49" t="s">
         <v>52</v>
@@ -2104,7 +2104,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="2">
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="D50" t="s">
         <v>53</v>
@@ -2124,7 +2124,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="2">
-        <v>42315</v>
+        <v>42316</v>
       </c>
       <c r="D51" t="s">
         <v>54</v>
@@ -2144,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="2">
-        <v>42284</v>
+        <v>42285</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
@@ -2164,7 +2164,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="2">
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="D53" t="s">
         <v>56</v>
@@ -2184,7 +2184,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="2">
-        <v>42223</v>
+        <v>42224</v>
       </c>
       <c r="D54" t="s">
         <v>57</v>
@@ -2204,7 +2204,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="2">
-        <v>42192</v>
+        <v>42193</v>
       </c>
       <c r="D55" t="s">
         <v>58</v>
@@ -2224,7 +2224,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="2">
-        <v>42162</v>
+        <v>42163</v>
       </c>
       <c r="D56" t="s">
         <v>59</v>
@@ -2244,7 +2244,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="2">
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="D57" t="s">
         <v>60</v>
@@ -2264,7 +2264,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="2">
-        <v>42101</v>
+        <v>42102</v>
       </c>
       <c r="D58" t="s">
         <v>61</v>
@@ -2284,7 +2284,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="2">
-        <v>42070</v>
+        <v>42071</v>
       </c>
       <c r="D59" t="s">
         <v>62</v>
@@ -2304,7 +2304,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="2">
-        <v>42042</v>
+        <v>42043</v>
       </c>
       <c r="D60" t="s">
         <v>63</v>
@@ -2324,7 +2324,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="2">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="D61" t="s">
         <v>64</v>
@@ -2344,7 +2344,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="2">
-        <v>41980</v>
+        <v>41981</v>
       </c>
       <c r="D62" t="s">
         <v>65</v>
@@ -2364,7 +2364,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="2">
-        <v>41950</v>
+        <v>41951</v>
       </c>
       <c r="D63" t="s">
         <v>66</v>
@@ -2384,7 +2384,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="2">
-        <v>41919</v>
+        <v>41920</v>
       </c>
       <c r="D64" t="s">
         <v>67</v>
@@ -2404,7 +2404,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="2">
-        <v>41889</v>
+        <v>41890</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
@@ -2424,7 +2424,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="2">
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="D66" t="s">
         <v>69</v>
@@ -2444,7 +2444,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="2">
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
@@ -2464,7 +2464,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="2">
-        <v>41797</v>
+        <v>41798</v>
       </c>
       <c r="D68" t="s">
         <v>71</v>
@@ -2484,7 +2484,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="2">
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="D69" t="s">
         <v>72</v>
@@ -2504,7 +2504,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="2">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
@@ -2524,7 +2524,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="2">
-        <v>41705</v>
+        <v>41706</v>
       </c>
       <c r="D71" t="s">
         <v>74</v>
@@ -2544,7 +2544,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="2">
-        <v>41677</v>
+        <v>41678</v>
       </c>
       <c r="D72" t="s">
         <v>75</v>
@@ -2564,7 +2564,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="2">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="D73" t="s">
         <v>76</v>
@@ -2584,7 +2584,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="2">
-        <v>41615</v>
+        <v>41616</v>
       </c>
       <c r="D74" t="s">
         <v>77</v>
@@ -2604,7 +2604,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="2">
-        <v>41585</v>
+        <v>41586</v>
       </c>
       <c r="D75" t="s">
         <v>78</v>
@@ -2624,7 +2624,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="2">
-        <v>41554</v>
+        <v>41555</v>
       </c>
       <c r="D76" t="s">
         <v>79</v>
@@ -2644,7 +2644,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="2">
-        <v>41524</v>
+        <v>41525</v>
       </c>
       <c r="D77" t="s">
         <v>80</v>
@@ -2664,7 +2664,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="2">
-        <v>41493</v>
+        <v>41494</v>
       </c>
       <c r="D78" t="s">
         <v>81</v>
@@ -2684,7 +2684,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="2">
-        <v>41462</v>
+        <v>41463</v>
       </c>
       <c r="D79" t="s">
         <v>82</v>
@@ -2704,7 +2704,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="2">
-        <v>41432</v>
+        <v>41433</v>
       </c>
       <c r="D80" t="s">
         <v>83</v>
@@ -2724,7 +2724,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="2">
-        <v>41401</v>
+        <v>41402</v>
       </c>
       <c r="D81" t="s">
         <v>84</v>
@@ -2744,7 +2744,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="2">
-        <v>41371</v>
+        <v>41372</v>
       </c>
       <c r="D82" t="s">
         <v>85</v>
@@ -2764,7 +2764,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="2">
-        <v>41340</v>
+        <v>41341</v>
       </c>
       <c r="D83" t="s">
         <v>86</v>
@@ -2784,7 +2784,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="2">
-        <v>41312</v>
+        <v>41313</v>
       </c>
       <c r="D84" t="s">
         <v>87</v>
@@ -2804,7 +2804,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="2">
-        <v>41281</v>
+        <v>41282</v>
       </c>
       <c r="D85" t="s">
         <v>88</v>
@@ -2824,7 +2824,7 @@
         <v>84</v>
       </c>
       <c r="C86" s="2">
-        <v>41250</v>
+        <v>41251</v>
       </c>
       <c r="D86" t="s">
         <v>89</v>
@@ -2844,7 +2844,7 @@
         <v>85</v>
       </c>
       <c r="C87" s="2">
-        <v>41220</v>
+        <v>41221</v>
       </c>
       <c r="D87" t="s">
         <v>90</v>
@@ -2864,7 +2864,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="2">
-        <v>41189</v>
+        <v>41190</v>
       </c>
       <c r="D88" t="s">
         <v>91</v>
@@ -2884,7 +2884,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="2">
-        <v>41159</v>
+        <v>41160</v>
       </c>
       <c r="D89" t="s">
         <v>92</v>
@@ -2904,7 +2904,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="2">
-        <v>41128</v>
+        <v>41129</v>
       </c>
       <c r="D90" t="s">
         <v>93</v>
@@ -2924,7 +2924,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="2">
-        <v>41097</v>
+        <v>41098</v>
       </c>
       <c r="D91" t="s">
         <v>94</v>
@@ -2944,7 +2944,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="2">
-        <v>41067</v>
+        <v>41068</v>
       </c>
       <c r="D92" t="s">
         <v>95</v>
@@ -2964,7 +2964,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="2">
-        <v>41036</v>
+        <v>41037</v>
       </c>
       <c r="D93" t="s">
         <v>96</v>
@@ -2984,7 +2984,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2">
-        <v>41006</v>
+        <v>41007</v>
       </c>
       <c r="D94" t="s">
         <v>97</v>
@@ -3004,7 +3004,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="2">
-        <v>40975</v>
+        <v>40976</v>
       </c>
       <c r="D95" t="s">
         <v>98</v>
@@ -3024,7 +3024,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="2">
-        <v>40946</v>
+        <v>40947</v>
       </c>
       <c r="D96" t="s">
         <v>99</v>
@@ -3044,7 +3044,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="2">
-        <v>40915</v>
+        <v>40916</v>
       </c>
       <c r="D97" t="s">
         <v>100</v>
@@ -3064,7 +3064,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="2">
-        <v>40884</v>
+        <v>40885</v>
       </c>
       <c r="D98" t="s">
         <v>101</v>
@@ -3084,7 +3084,7 @@
         <v>97</v>
       </c>
       <c r="C99" s="2">
-        <v>40854</v>
+        <v>40855</v>
       </c>
       <c r="D99" t="s">
         <v>102</v>
@@ -3104,7 +3104,7 @@
         <v>98</v>
       </c>
       <c r="C100" s="2">
-        <v>40823</v>
+        <v>40824</v>
       </c>
       <c r="D100" t="s">
         <v>103</v>
@@ -3124,7 +3124,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="2">
-        <v>40793</v>
+        <v>40794</v>
       </c>
       <c r="D101" t="s">
         <v>104</v>
@@ -3144,7 +3144,7 @@
         <v>100</v>
       </c>
       <c r="C102" s="2">
-        <v>40762</v>
+        <v>40763</v>
       </c>
       <c r="D102" t="s">
         <v>105</v>
@@ -3164,7 +3164,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="2">
-        <v>40731</v>
+        <v>40732</v>
       </c>
       <c r="D103" t="s">
         <v>106</v>
@@ -3184,7 +3184,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="2">
-        <v>40701</v>
+        <v>40702</v>
       </c>
       <c r="D104" t="s">
         <v>107</v>
@@ -3204,7 +3204,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="2">
-        <v>40670</v>
+        <v>40671</v>
       </c>
       <c r="D105" t="s">
         <v>108</v>
@@ -3224,7 +3224,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="2">
-        <v>40640</v>
+        <v>40641</v>
       </c>
       <c r="D106" t="s">
         <v>109</v>
@@ -3244,7 +3244,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="2">
-        <v>40609</v>
+        <v>40610</v>
       </c>
       <c r="D107" t="s">
         <v>110</v>
@@ -3264,7 +3264,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="2">
-        <v>40581</v>
+        <v>40582</v>
       </c>
       <c r="D108" t="s">
         <v>111</v>
@@ -3284,7 +3284,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="2">
-        <v>40550</v>
+        <v>40551</v>
       </c>
       <c r="D109" t="s">
         <v>112</v>
@@ -3304,7 +3304,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="2">
-        <v>40519</v>
+        <v>40520</v>
       </c>
       <c r="D110" t="s">
         <v>113</v>
@@ -3324,7 +3324,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="2">
-        <v>40489</v>
+        <v>40490</v>
       </c>
       <c r="D111" t="s">
         <v>114</v>
@@ -3344,7 +3344,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="2">
-        <v>40458</v>
+        <v>40459</v>
       </c>
       <c r="D112" t="s">
         <v>115</v>
@@ -3364,7 +3364,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="2">
-        <v>40428</v>
+        <v>40429</v>
       </c>
       <c r="D113" t="s">
         <v>116</v>
@@ -3384,7 +3384,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="2">
-        <v>40397</v>
+        <v>40398</v>
       </c>
       <c r="D114" t="s">
         <v>117</v>
@@ -3404,7 +3404,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="2">
-        <v>40366</v>
+        <v>40367</v>
       </c>
       <c r="D115" t="s">
         <v>118</v>
@@ -3424,7 +3424,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="2">
-        <v>40336</v>
+        <v>40337</v>
       </c>
       <c r="D116" t="s">
         <v>119</v>
@@ -3444,7 +3444,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="2">
-        <v>40305</v>
+        <v>40306</v>
       </c>
       <c r="D117" t="s">
         <v>120</v>
@@ -3464,7 +3464,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="2">
-        <v>40275</v>
+        <v>40276</v>
       </c>
       <c r="D118" t="s">
         <v>121</v>
@@ -3484,7 +3484,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="2">
-        <v>40244</v>
+        <v>40245</v>
       </c>
       <c r="D119" t="s">
         <v>122</v>
@@ -3504,7 +3504,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="2">
-        <v>40216</v>
+        <v>40217</v>
       </c>
       <c r="D120" t="s">
         <v>123</v>
@@ -3524,7 +3524,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="2">
-        <v>40185</v>
+        <v>40186</v>
       </c>
       <c r="D121" t="s">
         <v>124</v>
@@ -3544,7 +3544,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="2">
-        <v>40154</v>
+        <v>40155</v>
       </c>
       <c r="D122" t="s">
         <v>125</v>
@@ -3564,7 +3564,7 @@
         <v>121</v>
       </c>
       <c r="C123" s="2">
-        <v>40124</v>
+        <v>40125</v>
       </c>
       <c r="D123" t="s">
         <v>126</v>
@@ -3584,7 +3584,7 @@
         <v>122</v>
       </c>
       <c r="C124" s="2">
-        <v>40093</v>
+        <v>40094</v>
       </c>
       <c r="D124" t="s">
         <v>127</v>
@@ -3604,7 +3604,7 @@
         <v>123</v>
       </c>
       <c r="C125" s="2">
-        <v>40063</v>
+        <v>40064</v>
       </c>
       <c r="D125" t="s">
         <v>128</v>
@@ -3624,7 +3624,7 @@
         <v>124</v>
       </c>
       <c r="C126" s="2">
-        <v>40032</v>
+        <v>40033</v>
       </c>
       <c r="D126" t="s">
         <v>129</v>
@@ -3644,7 +3644,7 @@
         <v>125</v>
       </c>
       <c r="C127" s="2">
-        <v>40001</v>
+        <v>40002</v>
       </c>
       <c r="D127" t="s">
         <v>130</v>
@@ -3664,7 +3664,7 @@
         <v>126</v>
       </c>
       <c r="C128" s="2">
-        <v>39971</v>
+        <v>39972</v>
       </c>
       <c r="D128" t="s">
         <v>131</v>
@@ -3684,7 +3684,7 @@
         <v>127</v>
       </c>
       <c r="C129" s="2">
-        <v>39940</v>
+        <v>39941</v>
       </c>
       <c r="D129" t="s">
         <v>132</v>
@@ -3704,7 +3704,7 @@
         <v>128</v>
       </c>
       <c r="C130" s="2">
-        <v>39910</v>
+        <v>39911</v>
       </c>
       <c r="D130" t="s">
         <v>133</v>
@@ -3724,7 +3724,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="2">
-        <v>39879</v>
+        <v>39880</v>
       </c>
       <c r="D131" t="s">
         <v>134</v>
@@ -3744,7 +3744,7 @@
         <v>130</v>
       </c>
       <c r="C132" s="2">
-        <v>39851</v>
+        <v>39852</v>
       </c>
       <c r="D132" t="s">
         <v>135</v>
@@ -3764,7 +3764,7 @@
         <v>131</v>
       </c>
       <c r="C133" s="2">
-        <v>39820</v>
+        <v>39821</v>
       </c>
       <c r="D133" t="s">
         <v>136</v>
@@ -3784,7 +3784,7 @@
         <v>132</v>
       </c>
       <c r="C134" s="2">
-        <v>39789</v>
+        <v>39790</v>
       </c>
       <c r="D134" t="s">
         <v>137</v>
@@ -3804,7 +3804,7 @@
         <v>133</v>
       </c>
       <c r="C135" s="2">
-        <v>39759</v>
+        <v>39760</v>
       </c>
       <c r="D135" t="s">
         <v>138</v>
@@ -3824,7 +3824,7 @@
         <v>134</v>
       </c>
       <c r="C136" s="2">
-        <v>39728</v>
+        <v>39729</v>
       </c>
       <c r="D136" t="s">
         <v>139</v>
@@ -3844,7 +3844,7 @@
         <v>135</v>
       </c>
       <c r="C137" s="2">
-        <v>39698</v>
+        <v>39699</v>
       </c>
       <c r="D137" t="s">
         <v>140</v>
@@ -3864,7 +3864,7 @@
         <v>136</v>
       </c>
       <c r="C138" s="2">
-        <v>39667</v>
+        <v>39668</v>
       </c>
       <c r="D138" t="s">
         <v>141</v>
@@ -3884,7 +3884,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="2">
-        <v>39636</v>
+        <v>39637</v>
       </c>
       <c r="D139" t="s">
         <v>142</v>
@@ -3904,7 +3904,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="2">
-        <v>39606</v>
+        <v>39607</v>
       </c>
       <c r="D140" t="s">
         <v>143</v>
@@ -3924,7 +3924,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="2">
-        <v>39575</v>
+        <v>39576</v>
       </c>
       <c r="D141" t="s">
         <v>144</v>
@@ -3944,7 +3944,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="2">
-        <v>39545</v>
+        <v>39546</v>
       </c>
       <c r="D142" t="s">
         <v>145</v>
@@ -3964,7 +3964,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="2">
-        <v>39514</v>
+        <v>39515</v>
       </c>
       <c r="D143" t="s">
         <v>146</v>
@@ -3984,7 +3984,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="2">
-        <v>39485</v>
+        <v>39486</v>
       </c>
       <c r="D144" t="s">
         <v>147</v>
@@ -4004,7 +4004,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="2">
-        <v>39454</v>
+        <v>39455</v>
       </c>
       <c r="D145" t="s">
         <v>148</v>
@@ -4024,7 +4024,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="2">
-        <v>39423</v>
+        <v>39424</v>
       </c>
       <c r="D146" t="s">
         <v>149</v>
@@ -4044,7 +4044,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="2">
-        <v>39393</v>
+        <v>39394</v>
       </c>
       <c r="D147" t="s">
         <v>150</v>
@@ -4064,7 +4064,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="2">
-        <v>39362</v>
+        <v>39363</v>
       </c>
       <c r="D148" t="s">
         <v>151</v>
@@ -4084,7 +4084,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="2">
-        <v>39332</v>
+        <v>39333</v>
       </c>
       <c r="D149" t="s">
         <v>152</v>
@@ -4104,7 +4104,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="2">
-        <v>39301</v>
+        <v>39302</v>
       </c>
       <c r="D150" t="s">
         <v>153</v>
@@ -4124,7 +4124,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="2">
-        <v>39270</v>
+        <v>39271</v>
       </c>
       <c r="D151" t="s">
         <v>154</v>
@@ -4144,7 +4144,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="2">
-        <v>39240</v>
+        <v>39241</v>
       </c>
       <c r="D152" t="s">
         <v>155</v>
@@ -4164,7 +4164,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="2">
-        <v>39209</v>
+        <v>39210</v>
       </c>
       <c r="D153" t="s">
         <v>156</v>
@@ -4184,7 +4184,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="2">
-        <v>39179</v>
+        <v>39180</v>
       </c>
       <c r="D154" t="s">
         <v>157</v>
@@ -4204,7 +4204,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="2">
-        <v>39148</v>
+        <v>39149</v>
       </c>
       <c r="D155" t="s">
         <v>158</v>
@@ -4224,7 +4224,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="2">
-        <v>39120</v>
+        <v>39121</v>
       </c>
       <c r="D156" t="s">
         <v>159</v>
@@ -4244,7 +4244,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="2">
-        <v>39089</v>
+        <v>39090</v>
       </c>
       <c r="D157" t="s">
         <v>160</v>
@@ -4264,7 +4264,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="2">
-        <v>39058</v>
+        <v>39059</v>
       </c>
       <c r="D158" t="s">
         <v>161</v>
@@ -4284,7 +4284,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="2">
-        <v>39028</v>
+        <v>39029</v>
       </c>
       <c r="D159" t="s">
         <v>162</v>
@@ -4304,7 +4304,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="2">
-        <v>38997</v>
+        <v>38998</v>
       </c>
       <c r="D160" t="s">
         <v>163</v>
@@ -4324,7 +4324,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="2">
-        <v>38967</v>
+        <v>38968</v>
       </c>
       <c r="D161" t="s">
         <v>164</v>
@@ -4344,7 +4344,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="2">
-        <v>38936</v>
+        <v>38937</v>
       </c>
       <c r="D162" t="s">
         <v>165</v>
@@ -4364,7 +4364,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="2">
-        <v>38905</v>
+        <v>38906</v>
       </c>
       <c r="D163" t="s">
         <v>166</v>
@@ -4384,7 +4384,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="2">
-        <v>38875</v>
+        <v>38876</v>
       </c>
       <c r="D164" t="s">
         <v>167</v>
@@ -4404,7 +4404,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="2">
-        <v>38844</v>
+        <v>38845</v>
       </c>
       <c r="D165" t="s">
         <v>168</v>
@@ -4424,7 +4424,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="2">
-        <v>38814</v>
+        <v>38815</v>
       </c>
       <c r="D166" t="s">
         <v>169</v>
@@ -4444,7 +4444,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="2">
-        <v>38783</v>
+        <v>38784</v>
       </c>
       <c r="D167" t="s">
         <v>170</v>
@@ -4464,7 +4464,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="2">
-        <v>38755</v>
+        <v>38756</v>
       </c>
       <c r="D168" t="s">
         <v>171</v>
@@ -4484,7 +4484,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="2">
-        <v>38724</v>
+        <v>38725</v>
       </c>
       <c r="D169" t="s">
         <v>172</v>
@@ -4504,7 +4504,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="2">
-        <v>38693</v>
+        <v>38694</v>
       </c>
       <c r="D170" t="s">
         <v>173</v>
@@ -4524,7 +4524,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="2">
-        <v>38663</v>
+        <v>38664</v>
       </c>
       <c r="D171" t="s">
         <v>174</v>
@@ -4544,7 +4544,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="2">
-        <v>38632</v>
+        <v>38633</v>
       </c>
       <c r="D172" t="s">
         <v>175</v>
@@ -4564,7 +4564,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="2">
-        <v>38602</v>
+        <v>38603</v>
       </c>
       <c r="D173" t="s">
         <v>176</v>
@@ -4584,7 +4584,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="2">
-        <v>38571</v>
+        <v>38572</v>
       </c>
       <c r="D174" t="s">
         <v>177</v>
@@ -4604,7 +4604,7 @@
         <v>173</v>
       </c>
       <c r="C175" s="2">
-        <v>38540</v>
+        <v>38541</v>
       </c>
       <c r="D175" t="s">
         <v>178</v>
@@ -4624,7 +4624,7 @@
         <v>174</v>
       </c>
       <c r="C176" s="2">
-        <v>38510</v>
+        <v>38511</v>
       </c>
       <c r="D176" t="s">
         <v>179</v>
@@ -4644,7 +4644,7 @@
         <v>175</v>
       </c>
       <c r="C177" s="2">
-        <v>38479</v>
+        <v>38480</v>
       </c>
       <c r="D177" t="s">
         <v>180</v>
@@ -4664,7 +4664,7 @@
         <v>176</v>
       </c>
       <c r="C178" s="2">
-        <v>38449</v>
+        <v>38450</v>
       </c>
       <c r="D178" t="s">
         <v>181</v>
@@ -4684,7 +4684,7 @@
         <v>177</v>
       </c>
       <c r="C179" s="2">
-        <v>38418</v>
+        <v>38419</v>
       </c>
       <c r="D179" t="s">
         <v>182</v>
@@ -4704,7 +4704,7 @@
         <v>178</v>
       </c>
       <c r="C180" s="2">
-        <v>38390</v>
+        <v>38391</v>
       </c>
       <c r="D180" t="s">
         <v>183</v>
@@ -4724,7 +4724,7 @@
         <v>179</v>
       </c>
       <c r="C181" s="2">
-        <v>38359</v>
+        <v>38360</v>
       </c>
       <c r="D181" t="s">
         <v>184</v>
@@ -4744,7 +4744,7 @@
         <v>180</v>
       </c>
       <c r="C182" s="2">
-        <v>38328</v>
+        <v>38329</v>
       </c>
       <c r="D182" t="s">
         <v>185</v>
@@ -4764,7 +4764,7 @@
         <v>181</v>
       </c>
       <c r="C183" s="2">
-        <v>38298</v>
+        <v>38299</v>
       </c>
       <c r="D183" t="s">
         <v>186</v>
@@ -4784,7 +4784,7 @@
         <v>182</v>
       </c>
       <c r="C184" s="2">
-        <v>38267</v>
+        <v>38268</v>
       </c>
       <c r="D184" t="s">
         <v>187</v>
@@ -4804,7 +4804,7 @@
         <v>183</v>
       </c>
       <c r="C185" s="2">
-        <v>38237</v>
+        <v>38238</v>
       </c>
       <c r="D185" t="s">
         <v>188</v>
@@ -4824,7 +4824,7 @@
         <v>184</v>
       </c>
       <c r="C186" s="2">
-        <v>38206</v>
+        <v>38207</v>
       </c>
       <c r="D186" t="s">
         <v>189</v>
@@ -4844,7 +4844,7 @@
         <v>185</v>
       </c>
       <c r="C187" s="2">
-        <v>38175</v>
+        <v>38176</v>
       </c>
       <c r="D187" t="s">
         <v>190</v>
@@ -4864,7 +4864,7 @@
         <v>186</v>
       </c>
       <c r="C188" s="2">
-        <v>38145</v>
+        <v>38146</v>
       </c>
       <c r="D188" t="s">
         <v>191</v>
@@ -4884,7 +4884,7 @@
         <v>187</v>
       </c>
       <c r="C189" s="2">
-        <v>38114</v>
+        <v>38115</v>
       </c>
       <c r="D189" t="s">
         <v>192</v>
@@ -4904,7 +4904,7 @@
         <v>188</v>
       </c>
       <c r="C190" s="2">
-        <v>38084</v>
+        <v>38085</v>
       </c>
       <c r="D190" t="s">
         <v>193</v>
@@ -4924,7 +4924,7 @@
         <v>189</v>
       </c>
       <c r="C191" s="2">
-        <v>38053</v>
+        <v>38054</v>
       </c>
       <c r="D191" t="s">
         <v>194</v>
@@ -4944,7 +4944,7 @@
         <v>190</v>
       </c>
       <c r="C192" s="2">
-        <v>38024</v>
+        <v>38025</v>
       </c>
       <c r="D192" t="s">
         <v>195</v>
@@ -4964,7 +4964,7 @@
         <v>191</v>
       </c>
       <c r="C193" s="2">
-        <v>37993</v>
+        <v>37994</v>
       </c>
       <c r="D193" t="s">
         <v>196</v>
@@ -4984,7 +4984,7 @@
         <v>192</v>
       </c>
       <c r="C194" s="2">
-        <v>37962</v>
+        <v>37963</v>
       </c>
       <c r="D194" t="s">
         <v>197</v>
@@ -5004,7 +5004,7 @@
         <v>193</v>
       </c>
       <c r="C195" s="2">
-        <v>37932</v>
+        <v>37933</v>
       </c>
       <c r="D195" t="s">
         <v>198</v>
@@ -5024,7 +5024,7 @@
         <v>194</v>
       </c>
       <c r="C196" s="2">
-        <v>37901</v>
+        <v>37902</v>
       </c>
       <c r="D196" t="s">
         <v>199</v>
@@ -5044,7 +5044,7 @@
         <v>195</v>
       </c>
       <c r="C197" s="2">
-        <v>37871</v>
+        <v>37872</v>
       </c>
       <c r="D197" t="s">
         <v>200</v>
@@ -5064,7 +5064,7 @@
         <v>196</v>
       </c>
       <c r="C198" s="2">
-        <v>37840</v>
+        <v>37841</v>
       </c>
       <c r="D198" t="s">
         <v>201</v>
@@ -5084,7 +5084,7 @@
         <v>197</v>
       </c>
       <c r="C199" s="2">
-        <v>37809</v>
+        <v>37810</v>
       </c>
       <c r="D199" t="s">
         <v>202</v>
@@ -5104,7 +5104,7 @@
         <v>198</v>
       </c>
       <c r="C200" s="2">
-        <v>37779</v>
+        <v>37780</v>
       </c>
       <c r="D200" t="s">
         <v>203</v>
@@ -5124,7 +5124,7 @@
         <v>199</v>
       </c>
       <c r="C201" s="2">
-        <v>37748</v>
+        <v>37749</v>
       </c>
       <c r="D201" t="s">
         <v>204</v>
@@ -5144,7 +5144,7 @@
         <v>200</v>
       </c>
       <c r="C202" s="2">
-        <v>37718</v>
+        <v>37719</v>
       </c>
       <c r="D202" t="s">
         <v>205</v>
@@ -5164,7 +5164,7 @@
         <v>201</v>
       </c>
       <c r="C203" s="2">
-        <v>37687</v>
+        <v>37688</v>
       </c>
       <c r="D203" t="s">
         <v>206</v>
@@ -5184,7 +5184,7 @@
         <v>202</v>
       </c>
       <c r="C204" s="2">
-        <v>37659</v>
+        <v>37660</v>
       </c>
       <c r="D204" t="s">
         <v>207</v>
@@ -5204,7 +5204,7 @@
         <v>203</v>
       </c>
       <c r="C205" s="2">
-        <v>37628</v>
+        <v>37629</v>
       </c>
       <c r="D205" t="s">
         <v>208</v>
@@ -5224,7 +5224,7 @@
         <v>204</v>
       </c>
       <c r="C206" s="2">
-        <v>37597</v>
+        <v>37598</v>
       </c>
       <c r="D206" t="s">
         <v>209</v>
@@ -5244,7 +5244,7 @@
         <v>205</v>
       </c>
       <c r="C207" s="2">
-        <v>37567</v>
+        <v>37568</v>
       </c>
       <c r="D207" t="s">
         <v>210</v>
@@ -5264,7 +5264,7 @@
         <v>206</v>
       </c>
       <c r="C208" s="2">
-        <v>37536</v>
+        <v>37537</v>
       </c>
       <c r="D208" t="s">
         <v>211</v>
@@ -5284,7 +5284,7 @@
         <v>207</v>
       </c>
       <c r="C209" s="2">
-        <v>37506</v>
+        <v>37507</v>
       </c>
       <c r="D209" t="s">
         <v>212</v>
@@ -5304,7 +5304,7 @@
         <v>208</v>
       </c>
       <c r="C210" s="2">
-        <v>37475</v>
+        <v>37476</v>
       </c>
       <c r="D210" t="s">
         <v>213</v>
@@ -5324,7 +5324,7 @@
         <v>209</v>
       </c>
       <c r="C211" s="2">
-        <v>37444</v>
+        <v>37445</v>
       </c>
       <c r="D211" t="s">
         <v>214</v>
@@ -5344,7 +5344,7 @@
         <v>210</v>
       </c>
       <c r="C212" s="2">
-        <v>37414</v>
+        <v>37415</v>
       </c>
       <c r="D212" t="s">
         <v>215</v>
@@ -5364,7 +5364,7 @@
         <v>211</v>
       </c>
       <c r="C213" s="2">
-        <v>37383</v>
+        <v>37384</v>
       </c>
       <c r="D213" t="s">
         <v>216</v>
@@ -5384,7 +5384,7 @@
         <v>212</v>
       </c>
       <c r="C214" s="2">
-        <v>37353</v>
+        <v>37354</v>
       </c>
       <c r="D214" t="s">
         <v>217</v>
@@ -5404,7 +5404,7 @@
         <v>213</v>
       </c>
       <c r="C215" s="2">
-        <v>37322</v>
+        <v>37323</v>
       </c>
       <c r="D215" t="s">
         <v>218</v>
@@ -5424,7 +5424,7 @@
         <v>214</v>
       </c>
       <c r="C216" s="2">
-        <v>37294</v>
+        <v>37295</v>
       </c>
       <c r="D216" t="s">
         <v>219</v>
@@ -5444,7 +5444,7 @@
         <v>215</v>
       </c>
       <c r="C217" s="2">
-        <v>37263</v>
+        <v>37264</v>
       </c>
       <c r="D217" t="s">
         <v>220</v>
@@ -5464,7 +5464,7 @@
         <v>216</v>
       </c>
       <c r="C218" s="2">
-        <v>37232</v>
+        <v>37233</v>
       </c>
       <c r="D218" t="s">
         <v>221</v>
@@ -5484,7 +5484,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="2">
-        <v>37202</v>
+        <v>37203</v>
       </c>
       <c r="D219" t="s">
         <v>222</v>
@@ -5504,7 +5504,7 @@
         <v>218</v>
       </c>
       <c r="C220" s="2">
-        <v>37171</v>
+        <v>37172</v>
       </c>
       <c r="D220" t="s">
         <v>223</v>
@@ -5524,7 +5524,7 @@
         <v>219</v>
       </c>
       <c r="C221" s="2">
-        <v>37141</v>
+        <v>37142</v>
       </c>
       <c r="D221" t="s">
         <v>224</v>
@@ -5544,7 +5544,7 @@
         <v>220</v>
       </c>
       <c r="C222" s="2">
-        <v>37110</v>
+        <v>37111</v>
       </c>
       <c r="D222" t="s">
         <v>225</v>
@@ -5564,7 +5564,7 @@
         <v>221</v>
       </c>
       <c r="C223" s="2">
-        <v>37079</v>
+        <v>37080</v>
       </c>
       <c r="D223" t="s">
         <v>226</v>
@@ -5584,7 +5584,7 @@
         <v>222</v>
       </c>
       <c r="C224" s="2">
-        <v>37049</v>
+        <v>37050</v>
       </c>
       <c r="D224" t="s">
         <v>227</v>
@@ -5604,7 +5604,7 @@
         <v>223</v>
       </c>
       <c r="C225" s="2">
-        <v>37018</v>
+        <v>37019</v>
       </c>
       <c r="D225" t="s">
         <v>228</v>
@@ -5624,7 +5624,7 @@
         <v>224</v>
       </c>
       <c r="C226" s="2">
-        <v>36988</v>
+        <v>36989</v>
       </c>
       <c r="D226" t="s">
         <v>229</v>
@@ -5644,7 +5644,7 @@
         <v>225</v>
       </c>
       <c r="C227" s="2">
-        <v>36957</v>
+        <v>36958</v>
       </c>
       <c r="D227" t="s">
         <v>230</v>
@@ -5664,7 +5664,7 @@
         <v>226</v>
       </c>
       <c r="C228" s="2">
-        <v>36929</v>
+        <v>36930</v>
       </c>
       <c r="D228" t="s">
         <v>231</v>
@@ -5684,7 +5684,7 @@
         <v>227</v>
       </c>
       <c r="C229" s="2">
-        <v>36898</v>
+        <v>36899</v>
       </c>
       <c r="D229" t="s">
         <v>232</v>
@@ -5704,7 +5704,7 @@
         <v>228</v>
       </c>
       <c r="C230" s="2">
-        <v>36867</v>
+        <v>36868</v>
       </c>
       <c r="D230" t="s">
         <v>233</v>
@@ -5724,7 +5724,7 @@
         <v>229</v>
       </c>
       <c r="C231" s="2">
-        <v>36837</v>
+        <v>36838</v>
       </c>
       <c r="D231" t="s">
         <v>234</v>
@@ -5744,7 +5744,7 @@
         <v>230</v>
       </c>
       <c r="C232" s="2">
-        <v>36806</v>
+        <v>36807</v>
       </c>
       <c r="D232" t="s">
         <v>235</v>
@@ -5764,7 +5764,7 @@
         <v>231</v>
       </c>
       <c r="C233" s="2">
-        <v>36776</v>
+        <v>36777</v>
       </c>
       <c r="D233" t="s">
         <v>236</v>
@@ -5784,7 +5784,7 @@
         <v>232</v>
       </c>
       <c r="C234" s="2">
-        <v>36745</v>
+        <v>36746</v>
       </c>
       <c r="D234" t="s">
         <v>237</v>
@@ -5804,7 +5804,7 @@
         <v>233</v>
       </c>
       <c r="C235" s="2">
-        <v>36714</v>
+        <v>36715</v>
       </c>
       <c r="D235" t="s">
         <v>238</v>
@@ -5824,7 +5824,7 @@
         <v>234</v>
       </c>
       <c r="C236" s="2">
-        <v>36684</v>
+        <v>36685</v>
       </c>
       <c r="D236" t="s">
         <v>239</v>
@@ -5844,7 +5844,7 @@
         <v>235</v>
       </c>
       <c r="C237" s="2">
-        <v>36653</v>
+        <v>36654</v>
       </c>
       <c r="D237" t="s">
         <v>240</v>
@@ -5864,7 +5864,7 @@
         <v>236</v>
       </c>
       <c r="C238" s="2">
-        <v>36623</v>
+        <v>36624</v>
       </c>
       <c r="D238" t="s">
         <v>241</v>
@@ -5884,7 +5884,7 @@
         <v>237</v>
       </c>
       <c r="C239" s="2">
-        <v>36592</v>
+        <v>36593</v>
       </c>
       <c r="D239" t="s">
         <v>242</v>
@@ -5904,7 +5904,7 @@
         <v>238</v>
       </c>
       <c r="C240" s="2">
-        <v>36563</v>
+        <v>36564</v>
       </c>
       <c r="D240" t="s">
         <v>243</v>
@@ -5924,7 +5924,7 @@
         <v>239</v>
       </c>
       <c r="C241" s="2">
-        <v>36532</v>
+        <v>36533</v>
       </c>
       <c r="D241" t="s">
         <v>244</v>
